--- a/4.6_Building_Defensive_Alliance/performance_check/file_type_performance_check_BDA.xlsx
+++ b/4.6_Building_Defensive_Alliance/performance_check/file_type_performance_check_BDA.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,9 +524,48 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>4.627314814814815e-08</v>
+        <v>4.62962962962963e-08</v>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>3.125e-07</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2.893518518518518e-07</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>2.895949074074074e-07</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/4.6_Building_Defensive_Alliance/performance_check/file_type_performance_check_BDA.xlsx
+++ b/4.6_Building_Defensive_Alliance/performance_check/file_type_performance_check_BDA.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,9 +563,360 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2.895949074074074e-07</v>
+        <v>2.893518518518518e-07</v>
       </c>
       <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>4.62962962962963e-08</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>5.787037037037037e-08</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>5.787037037037037e-08</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>4.62962962962963e-08</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>5.787037037037037e-08</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>5.787037037037037e-08</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>5.787037037037037e-08</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>6.770833333333333e-06</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>6.666666666666666e-06</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>7.337962962962963e-06</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>6.493055555555557e-06</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>6.50462962962963e-06</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>6.597222222222221e-06</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>6.631944444444444e-06</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>6.793981481481481e-06</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>6.886574074074074e-06</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>7.372685185185186e-06</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>7.326388888888889e-06</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>6.944444444444444e-08</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>5.99537037037037e-06</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>4.62962962962963e-08</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>3.472222222222222e-08</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>3.472222222222222e-08</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>3.472222222222222e-08</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>3.472222222222222e-08</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>4.62962962962963e-08</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>5.142361111111111e-08</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>-</t>
         </is>
